--- a/交流管理/项目日报/夏金龙—工作日志.xlsx
+++ b/交流管理/项目日报/夏金龙—工作日志.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <r>
       <rPr>
@@ -97,14 +97,18 @@
     <t>作业人名：夏金龙</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="[$-804]aaa;@"/>
-    <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="[$-804]aaa;@"/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -286,11 +290,11 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -709,7 +713,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -743,7 +747,9 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="C3" s="15" t="s">
         <v>3</v>
       </c>

--- a/交流管理/项目日报/夏金龙—工作日志.xlsx
+++ b/交流管理/项目日报/夏金龙—工作日志.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <r>
       <rPr>
@@ -95,10 +95,6 @@
   </si>
   <si>
     <t>作业人名：夏金龙</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -713,7 +709,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -747,9 +743,7 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="B3" s="5"/>
       <c r="C3" s="15" t="s">
         <v>3</v>
       </c>

--- a/交流管理/项目日报/夏金龙—工作日志.xlsx
+++ b/交流管理/项目日报/夏金龙—工作日志.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <r>
       <rPr>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>作业人名：夏金龙</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -743,7 +747,9 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="C3" s="15" t="s">
         <v>3</v>
       </c>
